--- a/Excel/advanced_mixing_options.xlsx
+++ b/Excel/advanced_mixing_options.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F10C1D-4D69-4BF2-9200-DA007856B9D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -76,65 +83,65 @@
     <t>There is no guarantee that a sound device or any particular file will follow recommended channel mapping for the format.</t>
   </si>
   <si>
-    <t>प्रगत मिश्रण पर्याय - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>प्रगत मिश्रण पर्याय</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
     <t>येथे जा: सुचालन, शोध</t>
   </si>
   <si>
-    <t>आपण प्राधान्यांच्या आयात / निर्यात विभागात "सानुकूल मिक्स वापरा" निवडल्यास प्रगत मिश्रण पर्याय संवाद दिसतील. मल्टी-चॅनेल (सभोवताल ध्वनी) फायली निर्यात करण्यासाठी किंवा निर्यात केलेल्या फाईलमधील ऑडॅसिटी ट्रॅक आणि चॅनेल दरम्यान सानुकूलित असाइनमेंट करण्यासाठी हा संवाद वापरा.</t>
-  </si>
-  <si>
-    <t>जेव्हा आपण फाइल&gt; निर्यात&gt; ऑडिओ निर्यात करा ... क्लिक करा आणि आपल्या निर्यात केलेल्या फाईलचे नाव आणि स्वरूप निवडले असेल तर हा संवाद दिसून येतो जो आपल्या प्रकल्पात आपल्याकडे असलेल्या ट्रॅकची संख्या दर्शवितो आणि आपल्याला प्रत्येकाला पाहिजे त्यानुसार नकाशा बनविण्यास अनुमती देतो. 32 पर्यंत आउटपुट चॅनेल (डब्ल्यूएव्ही, एआयएफएफ किंवा ओजीजी) किंवा 8 आउटपुट चॅनेल (एफएलएसी). आमच्या फाईल स्वरूपन तुलना सारणीमध्ये वर्णन केल्यानुसार एएसी मल्टी-चॅनेल एक्सपोर्ट वापरलेल्या एफएफम्पेग एन्कोडरच्या अधीन आहे.</t>
-  </si>
-  <si>
-    <t>निर्यात केलेल्या फाईलमध्ये केवळ विशिष्ट ट्रॅक समाविष्ट करण्यासाठी, ते ट्रॅक निवडा नंतर फाइल&gt; निर्यात&gt; निवडलेले ऑडिओ वापरा ... किंवा आपण निर्यात करू इच्छित नसलेल्या ट्रॅकवर नि: शब्द करा.</t>
-  </si>
-  <si>
-    <t>फाइल&gt; निर्यात&gt; एकाधिक निर्यात .... वापरताना मल्टी-चॅनेल फायली निर्यात करण्यासाठी सध्या समर्थन नाही.</t>
-  </si>
-  <si>
-    <t>आपल्या प्रोजेक्टमधील डावीकडील ट्रॅक उजवीकडे दर्शविलेल्या आउटपुट चॅनेलमध्ये मिसळल्या जातील:</t>
-  </si>
-  <si>
-    <t>आपल्या प्रोजेक्टमधील ट्रॅक निळ्या बॉक्समध्ये दर्शविलेले आहेत.</t>
-  </si>
-  <si>
-    <t>आउटपुट चॅनेल ग्रे बॉक्समध्ये दर्शविले आहेत.</t>
-  </si>
-  <si>
-    <t>आउटपुट चॅनेलची संख्या बदलण्यासाठी इच्छित आउटपुट चॅनेल स्लाइडर समायोजित करा.</t>
-  </si>
-  <si>
-    <t>कोणताही बॉक्स निवडण्यासाठी किंवा निवड रद्द करण्यासाठी क्लिक करा. निवडलेला बॉक्स लाल रंगात बाह्यरेखा आहे.</t>
-  </si>
-  <si>
-    <t>एखादी बॉक्स आधीपासूनच निवडलेली असेल तेव्हा बॉक्स निवडण्यासाठी ते दुवे जोडलेले नसल्यास बॉक्सशी जोडले जातील किंवा ते जोडलेले असल्यास लिंक काढून टाकेल.</t>
-  </si>
-  <si>
-    <t>आपल्या इच्छेनुसार चॅनेलवर ट्रॅक कनेक्ट करा, त्यानंतर मल्टी-चॅनेल फाईलवर निर्यात करण्यासाठी "ओके" क्लिक करा.</t>
-  </si>
-  <si>
-    <t>ऑडिटीमध्ये ऑडिओच्या मल्टी-चॅनेल प्लेबॅकसाठी याक्षणी कोणतेही समर्थन नाही - ऑडॅसिटीमध्ये एकाधिक-चॅनेल फाईलचे प्लेबॅक नेहमीच स्टिरीओमध्ये मिसळले जाईल. त्याचप्रमाणे, ट्रॅक&gt; मिक्स&gt; मिक्स आणि रेंडर आणि ट्रॅक&gt; मिक्स&gt; मिक्स आणि रेंडर टू न्यू ट्रॅक आज्ञा फक्त मोनो किंवा स्टिरिओमध्ये मिसळतात.</t>
-  </si>
-  <si>
-    <t>विशिष्ट प्लेबॅक चॅनेलवर निर्यात केलेल्या फायलींमध्ये ऑडॅसिटी चॅनेलचे मॅपिंग करत नाही. ट्रॅक वर आणि खाली हलविण्यासाठी ट्रॅकच्या ट्रॅक नियंत्रण पॅनेलवर ऑडिओ ट्रॅक ड्रॉपडाउन मेनू किंवा माउस ड्रॅग वापरा जेणेकरून ते आपण निर्यात करत असलेल्या स्वरूपाच्या चॅनेल लेआउटशी जुळतील. याव्यतिरिक्त, ओजीजी आणि एसी 3 स्वरूपातील 5.1 फायली सहसा एफएल, एफसी, एफआर, एसएल, एसआर, एलएफई असतात.</t>
-  </si>
-  <si>
-    <t>अशी कोणतीही हमी नाही की ध्वनी डिव्हाइस किंवा कोणतीही विशिष्ट फाईल स्वरुपासाठी शिफारस केलेल्या चॅनेल मॅपिंगचे अनुसरण करेल.</t>
+    <t>प्रगत मिश्रण पर्याय - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिके वरुन</t>
+  </si>
+  <si>
+    <t>निर्यात केलेल्या धारिकामध्ये केवळ विशिष्ट गीतपट्टा समाविष्ट करण्यासाठी, ते गीतपट्टा निवडा नंतर धारिका&gt; निर्यात&gt; निवडलेले ध्वनी वापरा ... किंवा आपण निर्यात करू इच्छित नसलेल्या गीतपट्टावर नि: शब्द करा.</t>
+  </si>
+  <si>
+    <t>आपल्या प्रकल्पामधील गीतपट्टा निळ्या खोक्यामध्ये दर्शविलेले आहेत.</t>
+  </si>
+  <si>
+    <t>कोणताही खोके निवडण्यासाठी किंवा निवड रद्द करण्यासाठी क्लिक करा. निवडलेला खोका लाल रंगात बाह्यरेखा आहे.</t>
+  </si>
+  <si>
+    <t>एखादी खोका आधीपासूनच निवडलेली असेल तेव्हा खोका निवडण्यासाठी ते दुवे जोडलेले नसल्यास खोक्याशी जोडले जातील किंवा ते जोडलेले असल्यास दुवा काढून टाकेल.</t>
+  </si>
+  <si>
+    <t>आपण प्राधान्यांच्या आयात / निर्यात विभागात "सानुकूल मिश्र वापरा" निवडल्यास प्रगत मिश्रण पर्याय संवाद दिसतील. बहु-वाहिनी (सभोवताल ध्वनी) धारिका निर्यात करण्यासाठी किंवा निर्यात केलेल्या धारिकामधील ओड्यासिटी गीतपट्टा आणि वाहिनी दरम्यान सानुकूलित नेमण्यासाठी हा संवाद वापरा.</t>
+  </si>
+  <si>
+    <t>जेव्हा आपण धारिका&gt; निर्यात&gt; ध्वनी निर्यात करा ... क्लिक करा आणि आपल्या निर्यात केलेल्या धारिकेचे नाव आणि स्वरूप निवडले असेल तर हा संवाद दिसून येतो जो आपल्या प्रकल्पात आपल्याकडे असलेल्या गीतपट्टाची संख्या दर्शवितो आणि आपल्याला प्रत्येकाला पाहिजे त्यानुसार नकाशा बनविण्यास अनुमती देतो. ३२ पर्यंत उत्पादित वाहिनी (डब्ल्यूएव्ही, एआयएफएफ किंवा ओजीजी) किंवा ८ उत्पादित वाहिनी (एफएलएसी). आमच्या धारिका स्वरूपन तुलना सारणीमध्ये वर्णन केल्यानुसार एएसी बहु-वाहिनी निर्यात वापरलेल्या एफएफम्पेग एन्कोडरच्या अधीन आहे.</t>
+  </si>
+  <si>
+    <t>धारिका&gt; निर्यात&gt; एकाधिक निर्यात .... वापरताना बहु-वाहिनी धारिका निर्यात करण्यासाठी सध्या समर्थन नाही.</t>
+  </si>
+  <si>
+    <t>आपल्या प्रकल्पमधील डावीकडील गीतपट्टा उजवीकडे दर्शविलेल्या उत्पादित वाहिनीमध्ये मिसळल्या जातील:</t>
+  </si>
+  <si>
+    <t>उत्पादित वाहिनी राखाडी खोक्यामध्ये दर्शविले आहेत.</t>
+  </si>
+  <si>
+    <t>उत्पादित वाहिनीची संख्या बदलण्यासाठी इच्छित उत्पादित वाहिनी घसारपट्टी समायोजित करा.</t>
+  </si>
+  <si>
+    <t>आपल्या इच्छेनुसार वाहिनीवर गीतपट्टा जोडा, त्यानंतर बहु-वाहिनी धारिकावर निर्यात करण्यासाठी "ठीक" क्लिक करा.</t>
+  </si>
+  <si>
+    <t>विशिष्ट प्लेबॅक वाहिनीवर निर्यात केलेल्या धारीकांमध्ये ओड्यासिटी वाहिनीचे मॅपिंग करत नाही. गीतपट्टा वर आणि खाली हलविण्यासाठी गीतपट्टाच्या गीतपट्टा नियंत्रण पॅनेलवर ध्वनी गीतपट्टा ड्रॉपडाउन यादी किंवा माउस ड्रॅग वापरा जेणेकरून ते आपण निर्यात करत असलेल्या स्वरूपाच्या वाहिनी आराखडाशी जुळतील. याव्यतिरिक्त, ओजीजी आणि एसी ३ स्वरूपातील ५.१ धारिका सहसा एफएल, एफसी, एफआर, एसएल, एसआर, एलएफई असतात.</t>
+  </si>
+  <si>
+    <t>अशी कोणतीही हमी नाही की ध्वनी साधने किंवा कोणतीही विशिष्ट धारिका स्वरुपासाठी शिफारस केलेल्या वाहिनी मॅपिंगचे अनुसरण करेल.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीमध्ये ध्वनीच्या बहु-वाहिनी प्लेबॅकसाठी याक्षणी कोणतेही समर्थन नाही - ओड्यासिटीमध्ये एकाधिक-वाहिनी धारिकेचे प्लेबॅक नेहमीच स्तेरेओमध्ये मिसळले जाईल. त्याचप्रमाणे, गीतपट्टा&gt; मिश्र&gt; मिश्र आणि प्रस्तुत करणे आणि गीतपट्टा&gt; मिश्र&gt; मिश्र आणि नवीन गीतपट्टा ला प्रस्तुत करणे आज्ञा फक्त गोष्ट किंवा स्तेरेओमध्ये मिसळतात.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,10 +193,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,6 +210,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -243,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +296,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +348,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,217 +541,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="92.5546875" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>37</v>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
